--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1527,28 +1527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.4282571070481</v>
+        <v>109.2572255162094</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.9914425531859</v>
+        <v>149.490556039819</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.4441890884976</v>
+        <v>135.2233871827325</v>
       </c>
       <c r="AD2" t="n">
-        <v>88428.25710704809</v>
+        <v>109257.2255162095</v>
       </c>
       <c r="AE2" t="n">
-        <v>120991.4425531859</v>
+        <v>149490.556039819</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.27471406842702e-06</v>
+        <v>8.917165843949752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.841145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>109444.1890884976</v>
+        <v>135223.3871827325</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1633,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.70102588507754</v>
+        <v>97.35940209364669</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.9457274263663</v>
+        <v>133.2114291381527</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.929854493074</v>
+        <v>120.4979173046579</v>
       </c>
       <c r="AD3" t="n">
-        <v>76701.02588507754</v>
+        <v>97359.4020936467</v>
       </c>
       <c r="AE3" t="n">
-        <v>104945.7274263663</v>
+        <v>133211.4291381527</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.041435936378568e-06</v>
+        <v>1.021334720354822e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.352864583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>94929.854493074</v>
+        <v>120497.9173046579</v>
       </c>
     </row>
   </sheetData>
@@ -1930,28 +1930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.80599488536937</v>
+        <v>94.81653837249716</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.3528624096996</v>
+        <v>129.7321708116477</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.58444887448823</v>
+        <v>117.3507145096638</v>
       </c>
       <c r="AD2" t="n">
-        <v>74805.99488536938</v>
+        <v>94816.53837249716</v>
       </c>
       <c r="AE2" t="n">
-        <v>102352.8624096996</v>
+        <v>129732.1708116477</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.032655948356191e-06</v>
+        <v>1.044729932260265e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.474392361111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>92584.44887448823</v>
+        <v>117350.7145096638</v>
       </c>
     </row>
     <row r="3">
@@ -2036,28 +2036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.5793165329363</v>
+        <v>94.58986002006408</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.0427110875577</v>
+        <v>129.4220194895058</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.30389795923131</v>
+        <v>117.0701635944068</v>
       </c>
       <c r="AD3" t="n">
-        <v>74579.3165329363</v>
+        <v>94589.86002006408</v>
       </c>
       <c r="AE3" t="n">
-        <v>102042.7110875577</v>
+        <v>129422.0194895058</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.068199543178316e-06</v>
+        <v>1.050885340048923e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.454861111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>92303.89795923131</v>
+        <v>117070.1635944068</v>
       </c>
     </row>
   </sheetData>
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.15644842427291</v>
+        <v>104.3019283036828</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.8830536882889</v>
+        <v>142.7104997813593</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.6324604942142</v>
+        <v>129.0904099777094</v>
       </c>
       <c r="AD2" t="n">
-        <v>86156.44842427291</v>
+        <v>104301.9283036828</v>
       </c>
       <c r="AE2" t="n">
-        <v>117883.0536882889</v>
+        <v>142710.4997813593</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.358610008160346e-06</v>
+        <v>1.013964325322419e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.364149305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>106632.4604942142</v>
+        <v>129090.4099777094</v>
       </c>
     </row>
   </sheetData>
@@ -2630,28 +2630,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.96639265479293</v>
+        <v>92.9596542127376</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2040815971893</v>
+        <v>127.1914999843184</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.54530609039951</v>
+        <v>115.0525217402401</v>
       </c>
       <c r="AD2" t="n">
-        <v>73966.39265479293</v>
+        <v>92959.6542127376</v>
       </c>
       <c r="AE2" t="n">
-        <v>101204.0815971893</v>
+        <v>127191.4999843184</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.801444743221176e-06</v>
+        <v>1.056897239466276e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.856336805555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>91545.30609039951</v>
+        <v>115052.5217402401</v>
       </c>
     </row>
   </sheetData>
@@ -2927,28 +2927,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.8855108489166</v>
+        <v>118.490900291602</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.0360066980498</v>
+        <v>162.1244772284858</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.8620439535772</v>
+        <v>146.6515446649767</v>
       </c>
       <c r="AD2" t="n">
-        <v>100885.5108489166</v>
+        <v>118490.900291602</v>
       </c>
       <c r="AE2" t="n">
-        <v>138036.0066980498</v>
+        <v>162124.4772284858</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.794252821015905e-06</v>
+        <v>9.395190818690117e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.067274305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>124862.0439535772</v>
+        <v>146651.5446649767</v>
       </c>
     </row>
   </sheetData>
@@ -3224,28 +3224,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.51256624699373</v>
+        <v>95.69338702643343</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.3196245184021</v>
+        <v>130.9319138237951</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.45894456439552</v>
+        <v>118.4359557325821</v>
       </c>
       <c r="AD2" t="n">
-        <v>75512.56624699372</v>
+        <v>95693.38702643343</v>
       </c>
       <c r="AE2" t="n">
-        <v>103319.6245184021</v>
+        <v>130931.9138237951</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.017996662498536e-06</v>
+        <v>1.035385016335852e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.452690972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>93458.94456439553</v>
+        <v>118435.9557325821</v>
       </c>
     </row>
     <row r="3">
@@ -3330,28 +3330,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.39180001665011</v>
+        <v>95.57262079608982</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.154386834216</v>
+        <v>130.766676139609</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.30947693287555</v>
+        <v>118.2864881010621</v>
       </c>
       <c r="AD3" t="n">
-        <v>75391.80001665012</v>
+        <v>95572.62079608982</v>
       </c>
       <c r="AE3" t="n">
-        <v>103154.386834216</v>
+        <v>130766.676139609</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.038767518774179e-06</v>
+        <v>1.038958603124007e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.439670138888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>93309.47693287555</v>
+        <v>118286.4881010621</v>
       </c>
     </row>
   </sheetData>
@@ -3627,28 +3627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.5333238601249</v>
+        <v>132.3857503088884</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.7635936239061</v>
+        <v>181.136024019647</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.8521208289685</v>
+        <v>163.8486561132691</v>
       </c>
       <c r="AD2" t="n">
-        <v>106533.3238601249</v>
+        <v>132385.7503088884</v>
       </c>
       <c r="AE2" t="n">
-        <v>145763.5936239061</v>
+        <v>181136.024019647</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.378040048974353e-06</v>
+        <v>8.776483413373649e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.677083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>131852.1208289685</v>
+        <v>163848.6561132691</v>
       </c>
     </row>
   </sheetData>
@@ -3924,28 +3924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.53188846755997</v>
+        <v>93.16039195618959</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.6095737992456</v>
+        <v>127.4661582208335</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.00753728229442</v>
+        <v>115.3009669801475</v>
       </c>
       <c r="AD2" t="n">
-        <v>73531.88846755997</v>
+        <v>93160.39195618959</v>
       </c>
       <c r="AE2" t="n">
-        <v>100609.5737992456</v>
+        <v>127466.1582208335</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.006327895882067e-06</v>
+        <v>1.06376530152127e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.595920138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>91007.53728229442</v>
+        <v>115300.9669801475</v>
       </c>
     </row>
   </sheetData>
@@ -4221,28 +4221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.36103881320004</v>
+        <v>94.36542220085106</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7440538816814</v>
+        <v>129.1149337637609</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.03374417791568</v>
+        <v>116.7923856993294</v>
       </c>
       <c r="AD2" t="n">
-        <v>74361.03881320004</v>
+        <v>94365.42220085106</v>
       </c>
       <c r="AE2" t="n">
-        <v>101744.0538816813</v>
+        <v>129114.9337637609</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.031552112282921e-06</v>
+        <v>1.051850021348993e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.509114583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>92033.74417791568</v>
+        <v>116792.3856993294</v>
       </c>
     </row>
   </sheetData>
@@ -4518,28 +4518,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.19704484503652</v>
+        <v>102.871895492735</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4656230346225</v>
+        <v>140.7538658008264</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.7320618187203</v>
+        <v>127.3205143981248</v>
       </c>
       <c r="AD2" t="n">
-        <v>82197.04484503652</v>
+        <v>102871.895492735</v>
       </c>
       <c r="AE2" t="n">
-        <v>112465.6230346225</v>
+        <v>140753.8658008264</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.61540487063816e-06</v>
+        <v>9.545816111384753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.637152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>101732.0618187203</v>
+        <v>127320.5143981248</v>
       </c>
     </row>
     <row r="3">
@@ -4624,28 +4624,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.89490798387736</v>
+        <v>96.39916643098358</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.842761350533</v>
+        <v>131.89759234189</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.93215395149517</v>
+        <v>119.3094712482486</v>
       </c>
       <c r="AD3" t="n">
-        <v>75894.90798387736</v>
+        <v>96399.16643098359</v>
       </c>
       <c r="AE3" t="n">
-        <v>103842.761350533</v>
+        <v>131897.59234189</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.071379472985217e-06</v>
+        <v>1.03209427150293e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.363715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>93932.15395149517</v>
+        <v>119309.4712482486</v>
       </c>
     </row>
   </sheetData>
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.67459002946987</v>
+        <v>92.89088275177758</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.8048243717992</v>
+        <v>127.0974038374502</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.18415341423946</v>
+        <v>114.9674059975642</v>
       </c>
       <c r="AD2" t="n">
-        <v>73674.59002946987</v>
+        <v>92890.88275177758</v>
       </c>
       <c r="AE2" t="n">
-        <v>100804.8243717992</v>
+        <v>127097.4038374502</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.885429146794714e-06</v>
+        <v>1.061282147928556e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.754340277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>91184.15341423947</v>
+        <v>114967.4059975642</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.90643903289468</v>
+        <v>103.3246286858264</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.1727356924837</v>
+        <v>141.3733153287926</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.0853728474818</v>
+        <v>127.880844532545</v>
       </c>
       <c r="AD2" t="n">
-        <v>84906.43903289468</v>
+        <v>103324.6286858263</v>
       </c>
       <c r="AE2" t="n">
-        <v>116172.7356924837</v>
+        <v>141373.3153287926</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.539288406085821e-06</v>
+        <v>1.033454157244406e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.155815972222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>105085.3728474818</v>
+        <v>127880.844532545</v>
       </c>
     </row>
   </sheetData>
@@ -8240,28 +8240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.29157774983902</v>
+        <v>115.1067048347451</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.8044318267848</v>
+        <v>157.49407170425</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.275026403353</v>
+        <v>142.4630585451575</v>
       </c>
       <c r="AD2" t="n">
-        <v>88291.57774983902</v>
+        <v>115106.7048347451</v>
       </c>
       <c r="AE2" t="n">
-        <v>120804.4318267848</v>
+        <v>157494.07170425</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.119043965987462e-06</v>
+        <v>9.844111379212412e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.650607638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>109275.026403353</v>
+        <v>142463.0585451575</v>
       </c>
     </row>
   </sheetData>
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9291013437662</v>
+        <v>159.4520274896046</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3017520583224</v>
+        <v>218.1692985381597</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.8575146689519</v>
+        <v>197.3475268882739</v>
       </c>
       <c r="AD2" t="n">
-        <v>125929.1013437662</v>
+        <v>159452.0274896046</v>
       </c>
       <c r="AE2" t="n">
-        <v>172301.7520583224</v>
+        <v>218169.2985381597</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.783090925967121e-06</v>
+        <v>7.803000776553333e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.755642361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>155857.5146689519</v>
+        <v>197347.5268882739</v>
       </c>
     </row>
   </sheetData>
@@ -8834,28 +8834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.01025135196515</v>
+        <v>93.83070329233966</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2640910015695</v>
+        <v>128.3833077630026</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.59958828144937</v>
+        <v>116.1305850572398</v>
       </c>
       <c r="AD2" t="n">
-        <v>74010.25135196515</v>
+        <v>93830.70329233966</v>
       </c>
       <c r="AE2" t="n">
-        <v>101264.0910015695</v>
+        <v>128383.3077630026</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.014164767108356e-06</v>
+        <v>1.056665025038646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.552517361111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>91599.58828144937</v>
+        <v>116130.5850572398</v>
       </c>
     </row>
   </sheetData>
@@ -9131,28 +9131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.03579578701401</v>
+        <v>98.55160933184484</v>
       </c>
       <c r="AB2" t="n">
-        <v>106.772018492087</v>
+        <v>134.8426596779258</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.58184690269849</v>
+        <v>121.9734654911621</v>
       </c>
       <c r="AD2" t="n">
-        <v>78035.79578701401</v>
+        <v>98551.60933184484</v>
       </c>
       <c r="AE2" t="n">
-        <v>106772.018492087</v>
+        <v>134842.6596779258</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.864903847555506e-06</v>
+        <v>1.002833198038564e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.511284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>96581.84690269848</v>
+        <v>121973.4654911621</v>
       </c>
     </row>
     <row r="3">
@@ -9237,28 +9237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.48827919863231</v>
+        <v>95.83350054287095</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.2863939073651</v>
+        <v>131.1236233183569</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.42888543623644</v>
+        <v>118.609368742049</v>
       </c>
       <c r="AD3" t="n">
-        <v>75488.27919863231</v>
+        <v>95833.50054287096</v>
       </c>
       <c r="AE3" t="n">
-        <v>103286.3939073651</v>
+        <v>131123.623318357</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.069972406460551e-06</v>
+        <v>1.037897636278181e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.391927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>93428.88543623644</v>
+        <v>118609.368742049</v>
       </c>
     </row>
   </sheetData>
@@ -9534,28 +9534,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.3666451378149</v>
+        <v>206.9184485133545</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.576136390923</v>
+        <v>283.1149498535252</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.8067647775528</v>
+        <v>256.0948563939157</v>
       </c>
       <c r="AD2" t="n">
-        <v>174366.6451378149</v>
+        <v>206918.4485133545</v>
       </c>
       <c r="AE2" t="n">
-        <v>238576.1363909229</v>
+        <v>283114.9498535251</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.9191189139885e-06</v>
+        <v>6.257016351004887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.064670138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>215806.7647775528</v>
+        <v>256094.8563939157</v>
       </c>
     </row>
   </sheetData>
@@ -9831,28 +9831,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.76638093611187</v>
+        <v>102.7304311522064</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.2986608566814</v>
+        <v>140.5603080491491</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.53542024161771</v>
+        <v>127.1454295266075</v>
       </c>
       <c r="AD2" t="n">
-        <v>74766.38093611188</v>
+        <v>102730.4311522064</v>
       </c>
       <c r="AE2" t="n">
-        <v>102298.6608566814</v>
+        <v>140560.3080491491</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.672379930535935e-06</v>
+        <v>1.045097733549053e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.997395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92535.42024161771</v>
+        <v>127145.4295266075</v>
       </c>
     </row>
   </sheetData>
@@ -10128,28 +10128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.98852684080295</v>
+        <v>93.41605532260742</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2343665669796</v>
+        <v>127.8159681178379</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.57270070517819</v>
+        <v>115.6173915115432</v>
       </c>
       <c r="AD2" t="n">
-        <v>73988.52684080295</v>
+        <v>93416.05532260743</v>
       </c>
       <c r="AE2" t="n">
-        <v>101234.3665669796</v>
+        <v>127815.9681178379</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.918414034732634e-06</v>
+        <v>1.057281475736987e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.689236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>91572.7007051782</v>
+        <v>115617.3915115432</v>
       </c>
     </row>
   </sheetData>
